--- a/src/test/resources/br/org/sae/test/formato-invalido.xlsx
+++ b/src/test/resources/br/org/sae/test/formato-invalido.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="11355" windowHeight="7875" tabRatio="754" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMENTO" sheetId="11" r:id="rId1"/>
-    <sheet name="dados" sheetId="12" r:id="rId2"/>
+    <sheet name="VESTIBULINHO" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_103.00S" localSheetId="1" hidden="1">dados!$A$1:$BH$5</definedName>
+    <definedName name="_103.00S" localSheetId="1" hidden="1">VESTIBULINHO!$A$1:$BH$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">REQUERIMENTO!$A$2:$Z$63</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1927,53 +1927,102 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1981,181 +2030,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2182,18 +2090,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2203,12 +2111,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2218,6 +2135,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2230,6 +2150,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2248,91 +2174,165 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3057,12 +3057,12 @@
       <c r="AG1" s="70"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="223" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="255"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="62"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
@@ -3096,10 +3096,10 @@
       <c r="AA2" s="60"/>
     </row>
     <row r="3" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="227"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
       <c r="E3" s="71"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -3124,10 +3124,10 @@
       <c r="Z3" s="47"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="221"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="227"/>
+      <c r="A4" s="226"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="228"/>
       <c r="E4" s="74"/>
       <c r="F4" s="75"/>
       <c r="G4" s="60"/>
@@ -3183,10 +3183,10 @@
       <c r="AX4" s="60"/>
     </row>
     <row r="5" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="221"/>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="227"/>
+      <c r="A5" s="226"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="228"/>
       <c r="E5" s="74"/>
       <c r="F5" s="75"/>
       <c r="G5" s="60"/>
@@ -3234,10 +3234,10 @@
       <c r="AX5" s="60"/>
     </row>
     <row r="6" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="221"/>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="227"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="74"/>
       <c r="F6" s="75"/>
       <c r="G6" s="60"/>
@@ -3293,10 +3293,10 @@
       <c r="AX6" s="60"/>
     </row>
     <row r="7" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="221"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="227"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="71"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
@@ -3344,10 +3344,10 @@
       <c r="AX7" s="60"/>
     </row>
     <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="221"/>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="227"/>
+      <c r="A8" s="226"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="74"/>
       <c r="F8" s="75"/>
       <c r="G8" s="60"/>
@@ -3401,10 +3401,10 @@
       <c r="AX8" s="60"/>
     </row>
     <row r="9" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="221"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="227"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228"/>
       <c r="E9" s="74"/>
       <c r="F9" s="75"/>
       <c r="G9" s="60"/>
@@ -3452,10 +3452,10 @@
       <c r="AX9" s="60"/>
     </row>
     <row r="10" spans="1:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="227"/>
+      <c r="A10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="84"/>
@@ -3469,25 +3469,25 @@
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
       <c r="O10" s="84"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="240"/>
-      <c r="R10" s="240"/>
-      <c r="S10" s="240"/>
-      <c r="T10" s="240"/>
-      <c r="U10" s="240"/>
-      <c r="V10" s="240"/>
-      <c r="W10" s="240"/>
-      <c r="X10" s="240"/>
-      <c r="Y10" s="240"/>
-      <c r="Z10" s="241"/>
-      <c r="AB10" s="162" t="s">
+      <c r="P10" s="209"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="211"/>
+      <c r="AB10" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="269"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="269"/>
       <c r="AH10" s="148"/>
       <c r="AI10" s="75"/>
       <c r="AJ10" s="75"/>
@@ -3507,41 +3507,41 @@
       <c r="AX10" s="60"/>
     </row>
     <row r="11" spans="1:50" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="210"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="193" t="s">
+      <c r="A11" s="229"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="290" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="242" t="s">
+      <c r="F11" s="291"/>
+      <c r="G11" s="291"/>
+      <c r="H11" s="291"/>
+      <c r="I11" s="291"/>
+      <c r="J11" s="291"/>
+      <c r="K11" s="291"/>
+      <c r="L11" s="292"/>
+      <c r="M11" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="244"/>
-      <c r="Q11" s="245" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BJ5,62,FALSE)</f>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="214"/>
+      <c r="Q11" s="215" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BJ5,62,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="246"/>
-      <c r="S11" s="246"/>
-      <c r="T11" s="247"/>
+      <c r="R11" s="216"/>
+      <c r="S11" s="216"/>
+      <c r="T11" s="217"/>
       <c r="U11" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="V11" s="200"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="202"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="299"/>
       <c r="AA11" s="88"/>
       <c r="AB11" s="152" t="s">
         <v>228</v>
@@ -3712,22 +3712,22 @@
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
-      <c r="S15" s="196"/>
-      <c r="T15" s="196"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="293"/>
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="293"/>
+      <c r="Q15" s="293"/>
+      <c r="R15" s="293"/>
+      <c r="S15" s="293"/>
+      <c r="T15" s="293"/>
       <c r="U15" s="75"/>
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
@@ -3745,23 +3745,23 @@
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
-      <c r="E16" s="197" t="e">
-        <f>IF(Q11&gt;AC20,"CANDIDATO NÃO CLASSIFICADO",(IF(Q11&lt;=AE20,"CANDIDATO 1ª CHAMADA",VLOOKUP(AB11,dados!A1:BH5,1,FALSE))))</f>
+      <c r="E16" s="294" t="e">
+        <f>IF(Q11&gt;AC20,"CANDIDATO NÃO CLASSIFICADO",(IF(Q11&lt;=AE20,"CANDIDATO 1ª CHAMADA",VLOOKUP(AB11,VESTIBULINHO!A1:BH5,1,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
+      <c r="P16" s="294"/>
+      <c r="Q16" s="294"/>
+      <c r="R16" s="294"/>
       <c r="S16" s="92"/>
       <c r="T16" s="92"/>
       <c r="U16" s="92"/>
@@ -3877,47 +3877,47 @@
       <c r="AB19" s="90"/>
     </row>
     <row r="20" spans="1:35" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,3,FALSE)</f>
+      <c r="A20" s="182" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="198" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,4,FALSE)</f>
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="295" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="199"/>
+      <c r="H20" s="296"/>
       <c r="I20" s="102"/>
-      <c r="J20" s="169" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,5,FALSE)</f>
+      <c r="J20" s="182" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="169" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,18,FALSE)</f>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="182" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,18,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="208"/>
+      <c r="R20" s="208"/>
       <c r="S20" s="59"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="169" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,19,FALSE)</f>
+      <c r="U20" s="182" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,19,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V20" s="167"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="167"/>
-      <c r="Y20" s="167"/>
-      <c r="Z20" s="168"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="208"/>
+      <c r="X20" s="208"/>
+      <c r="Y20" s="208"/>
+      <c r="Z20" s="183"/>
       <c r="AB20" s="142" t="s">
         <v>217</v>
       </c>
@@ -3933,10 +3933,10 @@
         <v>#N/A</v>
       </c>
       <c r="AG20" s="123"/>
-      <c r="AH20" s="165" t="s">
+      <c r="AH20" s="270" t="s">
         <v>227</v>
       </c>
-      <c r="AI20" s="166"/>
+      <c r="AI20" s="271"/>
     </row>
     <row r="21" spans="1:35" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
@@ -3976,15 +3976,15 @@
       </c>
     </row>
     <row r="22" spans="1:35" s="4" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,60,FALSE)</f>
+      <c r="A22" s="208" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,60,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="183"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
@@ -4079,33 +4079,33 @@
     <row r="24" spans="1:35" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="256" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,6,FALSE)</f>
+      <c r="C24" s="230" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="167"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="167"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="208"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="208"/>
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
+      <c r="T24" s="208"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="208"/>
+      <c r="W24" s="208"/>
       <c r="X24" s="13"/>
-      <c r="Y24" s="169"/>
-      <c r="Z24" s="168"/>
+      <c r="Y24" s="182"/>
+      <c r="Z24" s="183"/>
       <c r="AB24" s="135">
         <v>38</v>
       </c>
@@ -4224,40 +4224,40 @@
       </c>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="178" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,2,FALSE)</f>
+      <c r="A27" s="195" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="178" t="s">
+      <c r="P27" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="179"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
+      <c r="S27" s="196"/>
       <c r="T27" s="2"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="169" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,20,FALSE)</f>
+      <c r="V27" s="182" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,20,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W27" s="167"/>
-      <c r="X27" s="167"/>
-      <c r="Y27" s="167"/>
-      <c r="Z27" s="168"/>
+      <c r="W27" s="208"/>
+      <c r="X27" s="208"/>
+      <c r="Y27" s="208"/>
+      <c r="Z27" s="183"/>
       <c r="AC27" s="33"/>
       <c r="AG27" s="127"/>
     </row>
@@ -4307,50 +4307,50 @@
       <c r="K29" s="46"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="180"/>
-      <c r="T29" s="180"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="180"/>
-      <c r="Z29" s="181"/>
+      <c r="N29" s="279"/>
+      <c r="O29" s="279"/>
+      <c r="P29" s="279"/>
+      <c r="Q29" s="279"/>
+      <c r="R29" s="279"/>
+      <c r="S29" s="279"/>
+      <c r="T29" s="279"/>
+      <c r="U29" s="279"/>
+      <c r="V29" s="279"/>
+      <c r="W29" s="279"/>
+      <c r="X29" s="279"/>
+      <c r="Y29" s="279"/>
+      <c r="Z29" s="280"/>
       <c r="AG29" s="128"/>
     </row>
     <row r="30" spans="1:35" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="184"/>
+      <c r="B30" s="282"/>
+      <c r="C30" s="282"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="282"/>
+      <c r="F30" s="282"/>
+      <c r="G30" s="282"/>
+      <c r="H30" s="282"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
+      <c r="K30" s="282"/>
+      <c r="L30" s="282"/>
+      <c r="M30" s="282"/>
+      <c r="N30" s="282"/>
+      <c r="O30" s="282"/>
+      <c r="P30" s="282"/>
+      <c r="Q30" s="282"/>
+      <c r="R30" s="282"/>
+      <c r="S30" s="282"/>
+      <c r="T30" s="282"/>
+      <c r="U30" s="282"/>
+      <c r="V30" s="282"/>
+      <c r="W30" s="282"/>
+      <c r="X30" s="282"/>
+      <c r="Y30" s="282"/>
+      <c r="Z30" s="283"/>
       <c r="AC30" s="17"/>
       <c r="AG30" s="128"/>
     </row>
@@ -4441,14 +4441,14 @@
       </c>
       <c r="S33" s="105"/>
       <c r="T33" s="105"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="190" t="s">
+      <c r="U33" s="284"/>
+      <c r="V33" s="285"/>
+      <c r="W33" s="287" t="s">
         <v>61</v>
       </c>
-      <c r="X33" s="191"/>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="192"/>
+      <c r="X33" s="288"/>
+      <c r="Y33" s="288"/>
+      <c r="Z33" s="289"/>
       <c r="AC33" s="33"/>
       <c r="AG33" s="123"/>
     </row>
@@ -4486,99 +4486,99 @@
         <v>214</v>
       </c>
       <c r="B35" s="114"/>
-      <c r="C35" s="207">
+      <c r="C35" s="264">
         <f ca="1">TODAY()</f>
-        <v>41626</v>
-      </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="207"/>
-      <c r="L35" s="207"/>
-      <c r="M35" s="207"/>
+        <v>41648</v>
+      </c>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="264"/>
+      <c r="I35" s="264"/>
+      <c r="J35" s="264"/>
+      <c r="K35" s="264"/>
+      <c r="L35" s="264"/>
+      <c r="M35" s="264"/>
       <c r="N35" s="75"/>
       <c r="O35" s="75"/>
       <c r="P35" s="75"/>
       <c r="Q35" s="75"/>
-      <c r="R35" s="214" t="s">
+      <c r="R35" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="214"/>
-      <c r="T35" s="214"/>
-      <c r="U35" s="214"/>
-      <c r="V35" s="214"/>
-      <c r="W35" s="214"/>
-      <c r="X35" s="214"/>
-      <c r="Y35" s="214"/>
-      <c r="Z35" s="280"/>
+      <c r="S35" s="190"/>
+      <c r="T35" s="190"/>
+      <c r="U35" s="190"/>
+      <c r="V35" s="190"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="190"/>
+      <c r="Y35" s="190"/>
+      <c r="Z35" s="191"/>
       <c r="AC35" s="69"/>
       <c r="AG35" s="128"/>
     </row>
     <row r="36" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="281"/>
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
       <c r="P36" s="70"/>
-      <c r="Q36" s="282"/>
-      <c r="R36" s="282"/>
-      <c r="S36" s="282"/>
-      <c r="T36" s="282"/>
-      <c r="U36" s="282"/>
-      <c r="V36" s="282"/>
-      <c r="W36" s="282"/>
-      <c r="X36" s="282"/>
-      <c r="Y36" s="282"/>
-      <c r="Z36" s="283"/>
+      <c r="Q36" s="193"/>
+      <c r="R36" s="193"/>
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193"/>
+      <c r="V36" s="193"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="193"/>
+      <c r="Y36" s="193"/>
+      <c r="Z36" s="194"/>
       <c r="AC36" s="69"/>
       <c r="AG36" s="123"/>
     </row>
     <row r="37" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="249" t="s">
+      <c r="A37" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="250"/>
-      <c r="C37" s="250"/>
-      <c r="D37" s="250"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="250"/>
-      <c r="J37" s="250"/>
-      <c r="K37" s="250"/>
-      <c r="L37" s="250"/>
-      <c r="M37" s="250"/>
+      <c r="B37" s="222"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="222"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="222"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="222"/>
+      <c r="J37" s="222"/>
+      <c r="K37" s="222"/>
+      <c r="L37" s="222"/>
+      <c r="M37" s="222"/>
       <c r="N37" s="107"/>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
-      <c r="Q37" s="211" t="s">
+      <c r="Q37" s="197" t="s">
         <v>211</v>
       </c>
-      <c r="R37" s="211"/>
-      <c r="S37" s="211"/>
-      <c r="T37" s="211"/>
-      <c r="U37" s="211"/>
-      <c r="V37" s="211"/>
-      <c r="W37" s="211"/>
-      <c r="X37" s="211"/>
-      <c r="Y37" s="211"/>
-      <c r="Z37" s="212"/>
+      <c r="R37" s="197"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="197"/>
+      <c r="U37" s="197"/>
+      <c r="V37" s="197"/>
+      <c r="W37" s="197"/>
+      <c r="X37" s="197"/>
+      <c r="Y37" s="197"/>
+      <c r="Z37" s="198"/>
     </row>
     <row r="38" spans="1:33" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71"/>
@@ -4871,13 +4871,13 @@
       <c r="AG46" s="128"/>
     </row>
     <row r="47" spans="1:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="284"/>
-      <c r="B47" s="285"/>
-      <c r="C47" s="285"/>
-      <c r="D47" s="285"/>
-      <c r="E47" s="285"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="200"/>
+      <c r="C47" s="200"/>
+      <c r="D47" s="200"/>
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="200"/>
       <c r="H47" s="42" t="s">
         <v>55</v>
       </c>
@@ -4969,38 +4969,38 @@
       <c r="AG49" s="125"/>
     </row>
     <row r="50" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="187" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,8,FALSE)</f>
+      <c r="A50" s="239" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,8,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B50" s="188"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
-      <c r="N50" s="188"/>
-      <c r="O50" s="188"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="188"/>
-      <c r="S50" s="188"/>
-      <c r="T50" s="188"/>
-      <c r="U50" s="188"/>
-      <c r="V50" s="188"/>
-      <c r="W50" s="188"/>
+      <c r="B50" s="240"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="240"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="240"/>
+      <c r="G50" s="240"/>
+      <c r="H50" s="240"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="240"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="240"/>
+      <c r="N50" s="240"/>
+      <c r="O50" s="240"/>
+      <c r="P50" s="240"/>
+      <c r="Q50" s="240"/>
+      <c r="R50" s="240"/>
+      <c r="S50" s="240"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="240"/>
+      <c r="V50" s="240"/>
+      <c r="W50" s="240"/>
       <c r="X50" s="60"/>
-      <c r="Y50" s="187" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,9,FALSE)</f>
+      <c r="Y50" s="239" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,9,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z50" s="189"/>
+      <c r="Z50" s="286"/>
     </row>
     <row r="51" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -5009,14 +5009,14 @@
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,10,FALSE)</f>
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="211"/>
-      <c r="H51" s="211"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
       <c r="I51" s="79"/>
       <c r="J51" s="37" t="s">
         <v>6</v>
@@ -5028,20 +5028,20 @@
         <v>37</v>
       </c>
       <c r="O51" s="79"/>
-      <c r="P51" s="208" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,11,FALSE)</f>
+      <c r="P51" s="265" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,11,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="208"/>
-      <c r="R51" s="208"/>
-      <c r="S51" s="208"/>
-      <c r="T51" s="208"/>
-      <c r="U51" s="208"/>
-      <c r="V51" s="208"/>
-      <c r="W51" s="208"/>
-      <c r="X51" s="208"/>
-      <c r="Y51" s="208"/>
-      <c r="Z51" s="209"/>
+      <c r="Q51" s="265"/>
+      <c r="R51" s="265"/>
+      <c r="S51" s="265"/>
+      <c r="T51" s="265"/>
+      <c r="U51" s="265"/>
+      <c r="V51" s="265"/>
+      <c r="W51" s="265"/>
+      <c r="X51" s="265"/>
+      <c r="Y51" s="265"/>
+      <c r="Z51" s="266"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
@@ -5080,47 +5080,47 @@
       <c r="Z52" s="72"/>
     </row>
     <row r="53" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="187" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,15,FALSE)</f>
+      <c r="A53" s="239" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,15,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
+      <c r="B53" s="240"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="240"/>
+      <c r="E53" s="240"/>
+      <c r="F53" s="240"/>
+      <c r="G53" s="240"/>
+      <c r="H53" s="240"/>
+      <c r="I53" s="240"/>
       <c r="J53" s="60"/>
-      <c r="K53" s="210" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,17,FALSE)</f>
+      <c r="K53" s="229" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,17,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L53" s="211"/>
-      <c r="M53" s="211"/>
-      <c r="N53" s="211"/>
-      <c r="O53" s="211"/>
+      <c r="L53" s="197"/>
+      <c r="M53" s="197"/>
+      <c r="N53" s="197"/>
+      <c r="O53" s="197"/>
       <c r="P53" s="79"/>
-      <c r="Q53" s="210" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,16,FALSE)</f>
+      <c r="Q53" s="229" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,16,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R53" s="211"/>
+      <c r="R53" s="197"/>
       <c r="S53" s="79"/>
-      <c r="T53" s="210" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,12,FALSE)</f>
+      <c r="T53" s="229" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,12,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="U53" s="211"/>
-      <c r="V53" s="211" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,13,FALSE)</f>
+      <c r="U53" s="197"/>
+      <c r="V53" s="197" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,13,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W53" s="211"/>
-      <c r="X53" s="211"/>
-      <c r="Y53" s="211"/>
-      <c r="Z53" s="212"/>
+      <c r="W53" s="197"/>
+      <c r="X53" s="197"/>
+      <c r="Y53" s="197"/>
+      <c r="Z53" s="198"/>
     </row>
     <row r="54" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
@@ -5158,160 +5158,160 @@
     <row r="55" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="117"/>
       <c r="B55" s="107" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,25,FALSE)</f>
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,25,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="211" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,26,FALSE)</f>
+      <c r="C55" s="197" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,26,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="211"/>
-      <c r="E55" s="211"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="197"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107"/>
       <c r="H55" s="107"/>
       <c r="I55" s="84"/>
       <c r="J55" s="84"/>
-      <c r="K55" s="265" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH5,21,FALSE)</f>
+      <c r="K55" s="241" t="e">
+        <f>VLOOKUP(AB11,VESTIBULINHO!A1:BH5,21,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L55" s="266"/>
-      <c r="M55" s="266"/>
-      <c r="N55" s="266"/>
-      <c r="O55" s="266"/>
-      <c r="P55" s="266"/>
-      <c r="Q55" s="266"/>
-      <c r="R55" s="266"/>
-      <c r="S55" s="266"/>
-      <c r="T55" s="266"/>
-      <c r="U55" s="266"/>
-      <c r="V55" s="266"/>
-      <c r="W55" s="266"/>
-      <c r="X55" s="266"/>
-      <c r="Y55" s="266"/>
-      <c r="Z55" s="267"/>
+      <c r="L55" s="242"/>
+      <c r="M55" s="242"/>
+      <c r="N55" s="242"/>
+      <c r="O55" s="242"/>
+      <c r="P55" s="242"/>
+      <c r="Q55" s="242"/>
+      <c r="R55" s="242"/>
+      <c r="S55" s="242"/>
+      <c r="T55" s="242"/>
+      <c r="U55" s="242"/>
+      <c r="V55" s="242"/>
+      <c r="W55" s="242"/>
+      <c r="X55" s="242"/>
+      <c r="Y55" s="242"/>
+      <c r="Z55" s="243"/>
     </row>
     <row r="56" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="268"/>
-      <c r="B56" s="269"/>
-      <c r="C56" s="269"/>
-      <c r="D56" s="269"/>
-      <c r="E56" s="269"/>
-      <c r="F56" s="269"/>
-      <c r="G56" s="269"/>
-      <c r="H56" s="269"/>
-      <c r="I56" s="269"/>
-      <c r="J56" s="269"/>
-      <c r="K56" s="269"/>
-      <c r="L56" s="269"/>
-      <c r="M56" s="269"/>
-      <c r="N56" s="269"/>
-      <c r="O56" s="269"/>
-      <c r="P56" s="269"/>
-      <c r="Q56" s="269"/>
-      <c r="R56" s="269"/>
-      <c r="S56" s="269"/>
-      <c r="T56" s="269"/>
-      <c r="U56" s="269"/>
-      <c r="V56" s="269"/>
-      <c r="W56" s="269"/>
-      <c r="X56" s="269"/>
-      <c r="Y56" s="269"/>
-      <c r="Z56" s="270"/>
+      <c r="A56" s="244"/>
+      <c r="B56" s="245"/>
+      <c r="C56" s="245"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="245"/>
+      <c r="F56" s="245"/>
+      <c r="G56" s="245"/>
+      <c r="H56" s="245"/>
+      <c r="I56" s="245"/>
+      <c r="J56" s="245"/>
+      <c r="K56" s="245"/>
+      <c r="L56" s="245"/>
+      <c r="M56" s="245"/>
+      <c r="N56" s="245"/>
+      <c r="O56" s="245"/>
+      <c r="P56" s="245"/>
+      <c r="Q56" s="245"/>
+      <c r="R56" s="245"/>
+      <c r="S56" s="245"/>
+      <c r="T56" s="245"/>
+      <c r="U56" s="245"/>
+      <c r="V56" s="245"/>
+      <c r="W56" s="245"/>
+      <c r="X56" s="245"/>
+      <c r="Y56" s="245"/>
+      <c r="Z56" s="246"/>
       <c r="AC56" s="4"/>
     </row>
     <row r="57" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="278"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="278"/>
-      <c r="E57" s="278"/>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="278"/>
-      <c r="K57" s="278"/>
-      <c r="L57" s="278"/>
-      <c r="M57" s="278"/>
-      <c r="N57" s="278"/>
-      <c r="O57" s="278"/>
-      <c r="P57" s="278"/>
-      <c r="Q57" s="278"/>
-      <c r="R57" s="278"/>
-      <c r="S57" s="278"/>
-      <c r="T57" s="278"/>
-      <c r="U57" s="278"/>
-      <c r="V57" s="278"/>
-      <c r="W57" s="278"/>
-      <c r="X57" s="278"/>
-      <c r="Y57" s="278"/>
-      <c r="Z57" s="279"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="188"/>
+      <c r="O57" s="188"/>
+      <c r="P57" s="188"/>
+      <c r="Q57" s="188"/>
+      <c r="R57" s="188"/>
+      <c r="S57" s="188"/>
+      <c r="T57" s="188"/>
+      <c r="U57" s="188"/>
+      <c r="V57" s="188"/>
+      <c r="W57" s="188"/>
+      <c r="X57" s="188"/>
+      <c r="Y57" s="188"/>
+      <c r="Z57" s="189"/>
     </row>
     <row r="58" spans="1:33" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="274" t="s">
+      <c r="A58" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="275"/>
-      <c r="C58" s="275"/>
-      <c r="D58" s="275"/>
-      <c r="E58" s="275"/>
-      <c r="F58" s="275"/>
-      <c r="G58" s="275"/>
-      <c r="H58" s="275"/>
-      <c r="I58" s="275"/>
-      <c r="J58" s="275"/>
-      <c r="K58" s="275"/>
-      <c r="L58" s="275"/>
-      <c r="M58" s="275"/>
-      <c r="N58" s="275"/>
-      <c r="O58" s="275"/>
-      <c r="P58" s="275"/>
-      <c r="Q58" s="275"/>
-      <c r="R58" s="275"/>
-      <c r="S58" s="275"/>
-      <c r="T58" s="275"/>
-      <c r="U58" s="275"/>
-      <c r="V58" s="275"/>
-      <c r="W58" s="275"/>
-      <c r="X58" s="275"/>
-      <c r="Y58" s="275"/>
-      <c r="Z58" s="276"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="185"/>
+      <c r="D58" s="185"/>
+      <c r="E58" s="185"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="185"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="185"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="185"/>
+      <c r="L58" s="185"/>
+      <c r="M58" s="185"/>
+      <c r="N58" s="185"/>
+      <c r="O58" s="185"/>
+      <c r="P58" s="185"/>
+      <c r="Q58" s="185"/>
+      <c r="R58" s="185"/>
+      <c r="S58" s="185"/>
+      <c r="T58" s="185"/>
+      <c r="U58" s="185"/>
+      <c r="V58" s="185"/>
+      <c r="W58" s="185"/>
+      <c r="X58" s="185"/>
+      <c r="Y58" s="185"/>
+      <c r="Z58" s="186"/>
       <c r="AC58" s="90"/>
       <c r="AG58" s="123"/>
     </row>
     <row r="59" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="248" t="s">
+      <c r="A59" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="175"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="175"/>
-      <c r="H59" s="175"/>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="175"/>
-      <c r="N59" s="175"/>
-      <c r="O59" s="175"/>
-      <c r="P59" s="175"/>
-      <c r="Q59" s="175"/>
-      <c r="R59" s="175"/>
-      <c r="S59" s="175"/>
-      <c r="T59" s="175"/>
-      <c r="U59" s="175"/>
-      <c r="V59" s="175"/>
-      <c r="W59" s="175"/>
-      <c r="X59" s="175"/>
-      <c r="Y59" s="175"/>
-      <c r="Z59" s="223"/>
+      <c r="B59" s="219"/>
+      <c r="C59" s="219"/>
+      <c r="D59" s="219"/>
+      <c r="E59" s="219"/>
+      <c r="F59" s="219"/>
+      <c r="G59" s="219"/>
+      <c r="H59" s="219"/>
+      <c r="I59" s="219"/>
+      <c r="J59" s="219"/>
+      <c r="K59" s="219"/>
+      <c r="L59" s="219"/>
+      <c r="M59" s="219"/>
+      <c r="N59" s="219"/>
+      <c r="O59" s="219"/>
+      <c r="P59" s="219"/>
+      <c r="Q59" s="219"/>
+      <c r="R59" s="219"/>
+      <c r="S59" s="219"/>
+      <c r="T59" s="219"/>
+      <c r="U59" s="219"/>
+      <c r="V59" s="219"/>
+      <c r="W59" s="219"/>
+      <c r="X59" s="219"/>
+      <c r="Y59" s="219"/>
+      <c r="Z59" s="220"/>
       <c r="AC59" s="90"/>
     </row>
     <row r="60" spans="1:33" s="90" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5321,47 +5321,47 @@
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
       <c r="D60" s="75"/>
-      <c r="E60" s="170" t="e">
+      <c r="E60" s="272" t="e">
         <f>E16</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="171"/>
-      <c r="L60" s="171"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="170"/>
-      <c r="Q60" s="170"/>
-      <c r="R60" s="170"/>
-      <c r="S60" s="170"/>
-      <c r="T60" s="170"/>
-      <c r="U60" s="170"/>
-      <c r="V60" s="170"/>
-      <c r="W60" s="170"/>
-      <c r="X60" s="170"/>
-      <c r="Y60" s="170"/>
-      <c r="Z60" s="172"/>
+      <c r="F60" s="272"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="272"/>
+      <c r="I60" s="272"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="273"/>
+      <c r="L60" s="273"/>
+      <c r="M60" s="273"/>
+      <c r="N60" s="272"/>
+      <c r="O60" s="272"/>
+      <c r="P60" s="272"/>
+      <c r="Q60" s="272"/>
+      <c r="R60" s="272"/>
+      <c r="S60" s="272"/>
+      <c r="T60" s="272"/>
+      <c r="U60" s="272"/>
+      <c r="V60" s="272"/>
+      <c r="W60" s="272"/>
+      <c r="X60" s="272"/>
+      <c r="Y60" s="272"/>
+      <c r="Z60" s="274"/>
       <c r="AG60" s="125"/>
     </row>
     <row r="61" spans="1:33" s="90" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="173" t="s">
+      <c r="A61" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="174"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="175" t="str">
+      <c r="B61" s="276"/>
+      <c r="C61" s="276"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="276"/>
+      <c r="F61" s="276"/>
+      <c r="G61" s="219" t="str">
         <f>P27</f>
         <v>1º módulo</v>
       </c>
-      <c r="H61" s="176"/>
+      <c r="H61" s="277"/>
       <c r="I61" s="164" t="s">
         <v>24</v>
       </c>
@@ -5369,15 +5369,15 @@
       <c r="K61" s="164"/>
       <c r="L61" s="164"/>
       <c r="M61" s="164"/>
-      <c r="N61" s="177" t="e">
+      <c r="N61" s="278" t="e">
         <f>A27</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="177"/>
-      <c r="P61" s="177"/>
-      <c r="Q61" s="177"/>
-      <c r="R61" s="177"/>
-      <c r="S61" s="177"/>
+      <c r="O61" s="278"/>
+      <c r="P61" s="278"/>
+      <c r="Q61" s="278"/>
+      <c r="R61" s="278"/>
+      <c r="S61" s="278"/>
       <c r="T61" s="57" t="s">
         <v>215</v>
       </c>
@@ -5390,39 +5390,39 @@
       <c r="AG61" s="125"/>
     </row>
     <row r="62" spans="1:33" s="90" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="263" t="s">
+      <c r="A62" s="237" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="264"/>
-      <c r="C62" s="264"/>
-      <c r="D62" s="264"/>
-      <c r="E62" s="224">
+      <c r="B62" s="238"/>
+      <c r="C62" s="238"/>
+      <c r="D62" s="238"/>
+      <c r="E62" s="234">
         <f ca="1">TODAY()</f>
-        <v>41626</v>
-      </c>
-      <c r="F62" s="261"/>
-      <c r="G62" s="262"/>
+        <v>41648</v>
+      </c>
+      <c r="F62" s="235"/>
+      <c r="G62" s="236"/>
       <c r="H62" s="121"/>
       <c r="I62" s="121"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="214" t="s">
+      <c r="L62" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="214"/>
-      <c r="N62" s="258"/>
-      <c r="O62" s="258"/>
-      <c r="P62" s="258"/>
-      <c r="Q62" s="258"/>
-      <c r="R62" s="258"/>
-      <c r="S62" s="258"/>
-      <c r="T62" s="259"/>
-      <c r="U62" s="259"/>
-      <c r="V62" s="259"/>
-      <c r="W62" s="259"/>
-      <c r="X62" s="259"/>
-      <c r="Y62" s="259"/>
-      <c r="Z62" s="260"/>
+      <c r="M62" s="190"/>
+      <c r="N62" s="231"/>
+      <c r="O62" s="231"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="231"/>
+      <c r="R62" s="231"/>
+      <c r="S62" s="231"/>
+      <c r="T62" s="232"/>
+      <c r="U62" s="232"/>
+      <c r="V62" s="232"/>
+      <c r="W62" s="232"/>
+      <c r="X62" s="232"/>
+      <c r="Y62" s="232"/>
+      <c r="Z62" s="233"/>
       <c r="AC62" s="69"/>
       <c r="AG62" s="125"/>
     </row>
@@ -5433,30 +5433,30 @@
       <c r="B63" s="130"/>
       <c r="C63" s="130"/>
       <c r="D63" s="130"/>
-      <c r="E63" s="224">
+      <c r="E63" s="234">
         <v>41477</v>
       </c>
-      <c r="F63" s="225"/>
-      <c r="G63" s="226"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="248"/>
       <c r="H63" s="75"/>
-      <c r="I63" s="234" t="s">
+      <c r="I63" s="255" t="s">
         <v>223</v>
       </c>
-      <c r="J63" s="235"/>
-      <c r="K63" s="215" t="e">
+      <c r="J63" s="256"/>
+      <c r="K63" s="257" t="e">
         <f>IF(A27=AC22,AH22,IF(A27=AC23,AH23,IF(A27=AC24,AH24,IF(A27=AC25,AH25,IF(A27=AC26,AH26,FALSE)))))</f>
         <v>#N/A</v>
       </c>
-      <c r="L63" s="215"/>
+      <c r="L63" s="257"/>
       <c r="M63" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="N63" s="215" t="e">
+      <c r="N63" s="257" t="e">
         <f>IF(A27=AC22,AI22,IF(A27=AC23,AI23,IF(A27=AC24,AI24,IF(A27=AC25,AI25,IF(A27=AC26,AI26,FALSE)))))</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="215"/>
-      <c r="P63" s="216"/>
+      <c r="O63" s="257"/>
+      <c r="P63" s="267"/>
       <c r="Q63" s="75"/>
       <c r="R63" s="75"/>
       <c r="S63" s="75"/>
@@ -5471,496 +5471,496 @@
       <c r="AG63" s="125"/>
     </row>
     <row r="64" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="221"/>
-      <c r="B64" s="222"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="222"/>
-      <c r="G64" s="222"/>
-      <c r="H64" s="222"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="175"/>
-      <c r="L64" s="175"/>
-      <c r="M64" s="175"/>
-      <c r="N64" s="175"/>
-      <c r="O64" s="175"/>
-      <c r="P64" s="175"/>
-      <c r="Q64" s="175"/>
-      <c r="R64" s="175"/>
-      <c r="S64" s="175"/>
-      <c r="T64" s="175"/>
-      <c r="U64" s="175"/>
-      <c r="V64" s="175"/>
-      <c r="W64" s="175"/>
-      <c r="X64" s="175"/>
-      <c r="Y64" s="175"/>
-      <c r="Z64" s="223"/>
+      <c r="A64" s="226"/>
+      <c r="B64" s="227"/>
+      <c r="C64" s="227"/>
+      <c r="D64" s="227"/>
+      <c r="E64" s="227"/>
+      <c r="F64" s="227"/>
+      <c r="G64" s="227"/>
+      <c r="H64" s="227"/>
+      <c r="I64" s="219"/>
+      <c r="J64" s="219"/>
+      <c r="K64" s="219"/>
+      <c r="L64" s="219"/>
+      <c r="M64" s="219"/>
+      <c r="N64" s="219"/>
+      <c r="O64" s="219"/>
+      <c r="P64" s="219"/>
+      <c r="Q64" s="219"/>
+      <c r="R64" s="219"/>
+      <c r="S64" s="219"/>
+      <c r="T64" s="219"/>
+      <c r="U64" s="219"/>
+      <c r="V64" s="219"/>
+      <c r="W64" s="219"/>
+      <c r="X64" s="219"/>
+      <c r="Y64" s="219"/>
+      <c r="Z64" s="220"/>
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="221"/>
-      <c r="B65" s="222"/>
-      <c r="C65" s="222"/>
-      <c r="D65" s="222"/>
-      <c r="E65" s="222"/>
-      <c r="F65" s="222"/>
-      <c r="G65" s="222"/>
-      <c r="H65" s="222"/>
-      <c r="I65" s="175"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="175"/>
-      <c r="L65" s="175"/>
-      <c r="M65" s="175"/>
-      <c r="N65" s="175"/>
-      <c r="O65" s="175"/>
-      <c r="P65" s="175"/>
-      <c r="Q65" s="175"/>
-      <c r="R65" s="175"/>
-      <c r="S65" s="175"/>
-      <c r="T65" s="175"/>
-      <c r="U65" s="175"/>
-      <c r="V65" s="175"/>
-      <c r="W65" s="175"/>
-      <c r="X65" s="175"/>
-      <c r="Y65" s="175"/>
-      <c r="Z65" s="223"/>
+      <c r="A65" s="226"/>
+      <c r="B65" s="227"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="219"/>
+      <c r="J65" s="219"/>
+      <c r="K65" s="219"/>
+      <c r="L65" s="219"/>
+      <c r="M65" s="219"/>
+      <c r="N65" s="219"/>
+      <c r="O65" s="219"/>
+      <c r="P65" s="219"/>
+      <c r="Q65" s="219"/>
+      <c r="R65" s="219"/>
+      <c r="S65" s="219"/>
+      <c r="T65" s="219"/>
+      <c r="U65" s="219"/>
+      <c r="V65" s="219"/>
+      <c r="W65" s="219"/>
+      <c r="X65" s="219"/>
+      <c r="Y65" s="219"/>
+      <c r="Z65" s="220"/>
       <c r="AC65" s="60"/>
     </row>
     <row r="66" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="221"/>
-      <c r="B66" s="222"/>
-      <c r="C66" s="222"/>
-      <c r="D66" s="222"/>
-      <c r="E66" s="222"/>
-      <c r="F66" s="222"/>
-      <c r="G66" s="222"/>
-      <c r="H66" s="222"/>
-      <c r="I66" s="175"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="175"/>
-      <c r="L66" s="175"/>
-      <c r="M66" s="175"/>
-      <c r="N66" s="175"/>
-      <c r="O66" s="175"/>
-      <c r="P66" s="175"/>
-      <c r="Q66" s="175"/>
-      <c r="R66" s="175"/>
-      <c r="S66" s="175"/>
-      <c r="T66" s="175"/>
-      <c r="U66" s="175"/>
-      <c r="V66" s="175"/>
-      <c r="W66" s="175"/>
-      <c r="X66" s="175"/>
-      <c r="Y66" s="175"/>
-      <c r="Z66" s="223"/>
+      <c r="A66" s="226"/>
+      <c r="B66" s="227"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="227"/>
+      <c r="F66" s="227"/>
+      <c r="G66" s="227"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="219"/>
+      <c r="J66" s="219"/>
+      <c r="K66" s="219"/>
+      <c r="L66" s="219"/>
+      <c r="M66" s="219"/>
+      <c r="N66" s="219"/>
+      <c r="O66" s="219"/>
+      <c r="P66" s="219"/>
+      <c r="Q66" s="219"/>
+      <c r="R66" s="219"/>
+      <c r="S66" s="219"/>
+      <c r="T66" s="219"/>
+      <c r="U66" s="219"/>
+      <c r="V66" s="219"/>
+      <c r="W66" s="219"/>
+      <c r="X66" s="219"/>
+      <c r="Y66" s="219"/>
+      <c r="Z66" s="220"/>
     </row>
     <row r="67" spans="1:33" s="60" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="221"/>
-      <c r="B67" s="222"/>
-      <c r="C67" s="222"/>
-      <c r="D67" s="222"/>
-      <c r="E67" s="222"/>
-      <c r="F67" s="222"/>
-      <c r="G67" s="222"/>
-      <c r="H67" s="222"/>
-      <c r="I67" s="222"/>
-      <c r="J67" s="222"/>
-      <c r="K67" s="222"/>
-      <c r="L67" s="222"/>
-      <c r="M67" s="222"/>
-      <c r="N67" s="222"/>
-      <c r="O67" s="222"/>
-      <c r="P67" s="222"/>
-      <c r="Q67" s="222"/>
-      <c r="R67" s="222"/>
-      <c r="S67" s="222"/>
-      <c r="T67" s="222"/>
-      <c r="U67" s="222"/>
-      <c r="V67" s="222"/>
-      <c r="W67" s="222"/>
-      <c r="X67" s="222"/>
-      <c r="Y67" s="222"/>
-      <c r="Z67" s="227"/>
+      <c r="A67" s="226"/>
+      <c r="B67" s="227"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="227"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="227"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="227"/>
+      <c r="J67" s="227"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="227"/>
+      <c r="M67" s="227"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="227"/>
+      <c r="P67" s="227"/>
+      <c r="Q67" s="227"/>
+      <c r="R67" s="227"/>
+      <c r="S67" s="227"/>
+      <c r="T67" s="227"/>
+      <c r="U67" s="227"/>
+      <c r="V67" s="227"/>
+      <c r="W67" s="227"/>
+      <c r="X67" s="227"/>
+      <c r="Y67" s="227"/>
+      <c r="Z67" s="228"/>
       <c r="AG67" s="70"/>
     </row>
     <row r="68" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="231"/>
-      <c r="B68" s="232"/>
-      <c r="C68" s="232"/>
-      <c r="D68" s="232"/>
-      <c r="E68" s="232"/>
-      <c r="F68" s="232"/>
-      <c r="G68" s="232"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="232"/>
-      <c r="K68" s="232"/>
-      <c r="L68" s="232"/>
-      <c r="M68" s="232"/>
-      <c r="N68" s="232"/>
-      <c r="O68" s="232"/>
-      <c r="P68" s="232"/>
-      <c r="Q68" s="232"/>
-      <c r="R68" s="232"/>
-      <c r="S68" s="232"/>
-      <c r="T68" s="232"/>
-      <c r="U68" s="232"/>
-      <c r="V68" s="232"/>
-      <c r="W68" s="232"/>
-      <c r="X68" s="232"/>
-      <c r="Y68" s="232"/>
-      <c r="Z68" s="233"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="253"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="253"/>
+      <c r="F68" s="253"/>
+      <c r="G68" s="253"/>
+      <c r="H68" s="253"/>
+      <c r="I68" s="253"/>
+      <c r="J68" s="253"/>
+      <c r="K68" s="253"/>
+      <c r="L68" s="253"/>
+      <c r="M68" s="253"/>
+      <c r="N68" s="253"/>
+      <c r="O68" s="253"/>
+      <c r="P68" s="253"/>
+      <c r="Q68" s="253"/>
+      <c r="R68" s="253"/>
+      <c r="S68" s="253"/>
+      <c r="T68" s="253"/>
+      <c r="U68" s="253"/>
+      <c r="V68" s="253"/>
+      <c r="W68" s="253"/>
+      <c r="X68" s="253"/>
+      <c r="Y68" s="253"/>
+      <c r="Z68" s="254"/>
       <c r="AC68" s="17"/>
     </row>
     <row r="69" spans="1:33" s="60" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="236"/>
-      <c r="B69" s="237"/>
-      <c r="C69" s="237"/>
-      <c r="D69" s="237"/>
-      <c r="E69" s="237"/>
-      <c r="F69" s="237"/>
-      <c r="G69" s="237"/>
-      <c r="H69" s="237"/>
-      <c r="I69" s="237"/>
-      <c r="J69" s="237"/>
-      <c r="K69" s="237"/>
-      <c r="L69" s="237"/>
-      <c r="M69" s="237"/>
-      <c r="N69" s="237"/>
-      <c r="O69" s="237"/>
-      <c r="P69" s="237"/>
-      <c r="Q69" s="237"/>
-      <c r="R69" s="237"/>
-      <c r="S69" s="237"/>
-      <c r="T69" s="237"/>
-      <c r="U69" s="237"/>
-      <c r="V69" s="237"/>
-      <c r="W69" s="237"/>
-      <c r="X69" s="237"/>
-      <c r="Y69" s="237"/>
-      <c r="Z69" s="238"/>
+      <c r="A69" s="258"/>
+      <c r="B69" s="259"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="259"/>
+      <c r="F69" s="259"/>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="259"/>
+      <c r="K69" s="259"/>
+      <c r="L69" s="259"/>
+      <c r="M69" s="259"/>
+      <c r="N69" s="259"/>
+      <c r="O69" s="259"/>
+      <c r="P69" s="259"/>
+      <c r="Q69" s="259"/>
+      <c r="R69" s="259"/>
+      <c r="S69" s="259"/>
+      <c r="T69" s="259"/>
+      <c r="U69" s="259"/>
+      <c r="V69" s="259"/>
+      <c r="W69" s="259"/>
+      <c r="X69" s="259"/>
+      <c r="Y69" s="259"/>
+      <c r="Z69" s="260"/>
       <c r="AC69" s="69"/>
       <c r="AG69" s="70"/>
     </row>
     <row r="70" spans="1:33" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="228"/>
-      <c r="B70" s="229"/>
-      <c r="C70" s="229"/>
-      <c r="D70" s="229"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="229"/>
-      <c r="G70" s="229"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="229"/>
-      <c r="J70" s="229"/>
-      <c r="K70" s="229"/>
-      <c r="L70" s="229"/>
-      <c r="M70" s="229"/>
-      <c r="N70" s="230"/>
-      <c r="O70" s="228"/>
-      <c r="P70" s="229"/>
-      <c r="Q70" s="229"/>
-      <c r="R70" s="229"/>
-      <c r="S70" s="229"/>
-      <c r="T70" s="229"/>
-      <c r="U70" s="229"/>
-      <c r="V70" s="229"/>
-      <c r="W70" s="229"/>
-      <c r="X70" s="229"/>
-      <c r="Y70" s="229"/>
-      <c r="Z70" s="230"/>
+      <c r="A70" s="249"/>
+      <c r="B70" s="250"/>
+      <c r="C70" s="250"/>
+      <c r="D70" s="250"/>
+      <c r="E70" s="250"/>
+      <c r="F70" s="250"/>
+      <c r="G70" s="250"/>
+      <c r="H70" s="250"/>
+      <c r="I70" s="250"/>
+      <c r="J70" s="250"/>
+      <c r="K70" s="250"/>
+      <c r="L70" s="250"/>
+      <c r="M70" s="250"/>
+      <c r="N70" s="251"/>
+      <c r="O70" s="249"/>
+      <c r="P70" s="250"/>
+      <c r="Q70" s="250"/>
+      <c r="R70" s="250"/>
+      <c r="S70" s="250"/>
+      <c r="T70" s="250"/>
+      <c r="U70" s="250"/>
+      <c r="V70" s="250"/>
+      <c r="W70" s="250"/>
+      <c r="X70" s="250"/>
+      <c r="Y70" s="250"/>
+      <c r="Z70" s="251"/>
       <c r="AC70" s="4"/>
       <c r="AG70" s="129"/>
     </row>
     <row r="71" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="289"/>
-      <c r="B71" s="290"/>
-      <c r="C71" s="290"/>
-      <c r="D71" s="291"/>
-      <c r="E71" s="291"/>
-      <c r="F71" s="291"/>
-      <c r="G71" s="291"/>
-      <c r="H71" s="291"/>
-      <c r="I71" s="291"/>
-      <c r="J71" s="291"/>
-      <c r="K71" s="291"/>
-      <c r="L71" s="291"/>
-      <c r="M71" s="291"/>
-      <c r="N71" s="292"/>
+      <c r="A71" s="201"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="203"/>
+      <c r="E71" s="203"/>
+      <c r="F71" s="203"/>
+      <c r="G71" s="203"/>
+      <c r="H71" s="203"/>
+      <c r="I71" s="203"/>
+      <c r="J71" s="203"/>
+      <c r="K71" s="203"/>
+      <c r="L71" s="203"/>
+      <c r="M71" s="203"/>
+      <c r="N71" s="204"/>
       <c r="O71" s="28"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="30"/>
-      <c r="R71" s="291"/>
-      <c r="S71" s="291"/>
-      <c r="T71" s="291"/>
-      <c r="U71" s="291"/>
-      <c r="V71" s="293"/>
-      <c r="W71" s="294"/>
-      <c r="X71" s="294"/>
-      <c r="Y71" s="294"/>
-      <c r="Z71" s="295"/>
+      <c r="R71" s="203"/>
+      <c r="S71" s="203"/>
+      <c r="T71" s="203"/>
+      <c r="U71" s="203"/>
+      <c r="V71" s="205"/>
+      <c r="W71" s="206"/>
+      <c r="X71" s="206"/>
+      <c r="Y71" s="206"/>
+      <c r="Z71" s="207"/>
       <c r="AC71" s="4"/>
     </row>
     <row r="72" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="251"/>
-      <c r="B72" s="252"/>
-      <c r="C72" s="252"/>
-      <c r="D72" s="286"/>
-      <c r="E72" s="286"/>
-      <c r="F72" s="286"/>
-      <c r="G72" s="286"/>
-      <c r="H72" s="286"/>
-      <c r="I72" s="286"/>
-      <c r="J72" s="286"/>
-      <c r="K72" s="286"/>
-      <c r="L72" s="286"/>
-      <c r="M72" s="286"/>
-      <c r="N72" s="287"/>
-      <c r="O72" s="271"/>
-      <c r="P72" s="272"/>
-      <c r="Q72" s="273"/>
-      <c r="R72" s="252"/>
-      <c r="S72" s="252"/>
-      <c r="T72" s="252"/>
-      <c r="U72" s="252"/>
+      <c r="A72" s="180"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="167"/>
+      <c r="I72" s="167"/>
+      <c r="J72" s="167"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="167"/>
+      <c r="N72" s="168"/>
+      <c r="O72" s="169"/>
+      <c r="P72" s="170"/>
+      <c r="Q72" s="171"/>
+      <c r="R72" s="163"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="163"/>
+      <c r="U72" s="163"/>
       <c r="V72" s="164"/>
       <c r="W72" s="164"/>
       <c r="X72" s="164"/>
       <c r="Y72" s="164"/>
-      <c r="Z72" s="257"/>
+      <c r="Z72" s="165"/>
       <c r="AG72" s="123"/>
     </row>
     <row r="73" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="251"/>
-      <c r="B73" s="252"/>
-      <c r="C73" s="252"/>
-      <c r="D73" s="286"/>
-      <c r="E73" s="286"/>
-      <c r="F73" s="286"/>
-      <c r="G73" s="286"/>
-      <c r="H73" s="286"/>
-      <c r="I73" s="286"/>
-      <c r="J73" s="286"/>
-      <c r="K73" s="286"/>
-      <c r="L73" s="286"/>
-      <c r="M73" s="286"/>
-      <c r="N73" s="287"/>
-      <c r="O73" s="271"/>
-      <c r="P73" s="272"/>
-      <c r="Q73" s="273"/>
-      <c r="R73" s="252"/>
-      <c r="S73" s="252"/>
-      <c r="T73" s="288"/>
-      <c r="U73" s="288"/>
+      <c r="A73" s="180"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="167"/>
+      <c r="E73" s="167"/>
+      <c r="F73" s="167"/>
+      <c r="G73" s="167"/>
+      <c r="H73" s="167"/>
+      <c r="I73" s="167"/>
+      <c r="J73" s="167"/>
+      <c r="K73" s="167"/>
+      <c r="L73" s="167"/>
+      <c r="M73" s="167"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="170"/>
+      <c r="Q73" s="171"/>
+      <c r="R73" s="163"/>
+      <c r="S73" s="163"/>
+      <c r="T73" s="166"/>
+      <c r="U73" s="166"/>
       <c r="V73" s="164"/>
       <c r="W73" s="164"/>
       <c r="X73" s="164"/>
       <c r="Y73" s="164"/>
-      <c r="Z73" s="257"/>
+      <c r="Z73" s="165"/>
       <c r="AG73" s="123"/>
     </row>
     <row r="74" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="251"/>
-      <c r="B74" s="252"/>
-      <c r="C74" s="252"/>
-      <c r="D74" s="286"/>
-      <c r="E74" s="286"/>
-      <c r="F74" s="286"/>
-      <c r="G74" s="286"/>
-      <c r="H74" s="286"/>
-      <c r="I74" s="286"/>
-      <c r="J74" s="286"/>
-      <c r="K74" s="286"/>
-      <c r="L74" s="286"/>
-      <c r="M74" s="286"/>
-      <c r="N74" s="287"/>
-      <c r="O74" s="271"/>
-      <c r="P74" s="272"/>
-      <c r="Q74" s="273"/>
-      <c r="R74" s="252"/>
-      <c r="S74" s="252"/>
-      <c r="T74" s="288"/>
-      <c r="U74" s="288"/>
+      <c r="A74" s="180"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="163"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="168"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="170"/>
+      <c r="Q74" s="171"/>
+      <c r="R74" s="163"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="166"/>
+      <c r="U74" s="166"/>
       <c r="V74" s="164"/>
       <c r="W74" s="164"/>
       <c r="X74" s="164"/>
       <c r="Y74" s="164"/>
-      <c r="Z74" s="257"/>
+      <c r="Z74" s="165"/>
       <c r="AG74" s="123"/>
     </row>
     <row r="75" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="251"/>
-      <c r="B75" s="252"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="286"/>
-      <c r="E75" s="286"/>
-      <c r="F75" s="286"/>
-      <c r="G75" s="286"/>
-      <c r="H75" s="286"/>
-      <c r="I75" s="286"/>
-      <c r="J75" s="286"/>
-      <c r="K75" s="286"/>
-      <c r="L75" s="286"/>
-      <c r="M75" s="286"/>
-      <c r="N75" s="287"/>
-      <c r="O75" s="271"/>
-      <c r="P75" s="272"/>
-      <c r="Q75" s="273"/>
-      <c r="R75" s="252"/>
-      <c r="S75" s="252"/>
-      <c r="T75" s="288"/>
-      <c r="U75" s="288"/>
+      <c r="A75" s="180"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="167"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="167"/>
+      <c r="J75" s="167"/>
+      <c r="K75" s="167"/>
+      <c r="L75" s="167"/>
+      <c r="M75" s="167"/>
+      <c r="N75" s="168"/>
+      <c r="O75" s="169"/>
+      <c r="P75" s="170"/>
+      <c r="Q75" s="171"/>
+      <c r="R75" s="163"/>
+      <c r="S75" s="163"/>
+      <c r="T75" s="166"/>
+      <c r="U75" s="166"/>
       <c r="V75" s="164"/>
       <c r="W75" s="164"/>
       <c r="X75" s="164"/>
       <c r="Y75" s="164"/>
-      <c r="Z75" s="257"/>
+      <c r="Z75" s="165"/>
       <c r="AG75" s="123"/>
     </row>
     <row r="76" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="251"/>
-      <c r="B76" s="252"/>
-      <c r="C76" s="252"/>
-      <c r="D76" s="286"/>
-      <c r="E76" s="286"/>
-      <c r="F76" s="286"/>
-      <c r="G76" s="286"/>
-      <c r="H76" s="286"/>
-      <c r="I76" s="286"/>
-      <c r="J76" s="286"/>
-      <c r="K76" s="286"/>
-      <c r="L76" s="286"/>
-      <c r="M76" s="286"/>
-      <c r="N76" s="287"/>
-      <c r="O76" s="271"/>
-      <c r="P76" s="272"/>
-      <c r="Q76" s="273"/>
-      <c r="R76" s="252"/>
-      <c r="S76" s="252"/>
-      <c r="T76" s="288"/>
-      <c r="U76" s="288"/>
+      <c r="A76" s="180"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="170"/>
+      <c r="Q76" s="171"/>
+      <c r="R76" s="163"/>
+      <c r="S76" s="163"/>
+      <c r="T76" s="166"/>
+      <c r="U76" s="166"/>
       <c r="V76" s="164"/>
       <c r="W76" s="164"/>
       <c r="X76" s="164"/>
       <c r="Y76" s="164"/>
-      <c r="Z76" s="257"/>
+      <c r="Z76" s="165"/>
       <c r="AG76" s="123"/>
     </row>
     <row r="77" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="251"/>
-      <c r="B77" s="252"/>
-      <c r="C77" s="252"/>
-      <c r="D77" s="286"/>
-      <c r="E77" s="286"/>
-      <c r="F77" s="286"/>
-      <c r="G77" s="286"/>
-      <c r="H77" s="286"/>
-      <c r="I77" s="286"/>
-      <c r="J77" s="286"/>
-      <c r="K77" s="286"/>
-      <c r="L77" s="286"/>
-      <c r="M77" s="286"/>
-      <c r="N77" s="287"/>
-      <c r="O77" s="271"/>
-      <c r="P77" s="272"/>
-      <c r="Q77" s="273"/>
-      <c r="R77" s="252"/>
-      <c r="S77" s="252"/>
-      <c r="T77" s="288"/>
-      <c r="U77" s="288"/>
+      <c r="A77" s="180"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="167"/>
+      <c r="I77" s="167"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="167"/>
+      <c r="L77" s="167"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="169"/>
+      <c r="P77" s="170"/>
+      <c r="Q77" s="171"/>
+      <c r="R77" s="163"/>
+      <c r="S77" s="163"/>
+      <c r="T77" s="166"/>
+      <c r="U77" s="166"/>
       <c r="V77" s="164"/>
       <c r="W77" s="164"/>
       <c r="X77" s="164"/>
       <c r="Y77" s="164"/>
-      <c r="Z77" s="257"/>
+      <c r="Z77" s="165"/>
       <c r="AG77" s="123"/>
     </row>
     <row r="78" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="251"/>
-      <c r="B78" s="252"/>
-      <c r="C78" s="252"/>
-      <c r="D78" s="286"/>
-      <c r="E78" s="286"/>
-      <c r="F78" s="286"/>
-      <c r="G78" s="286"/>
-      <c r="H78" s="286"/>
-      <c r="I78" s="286"/>
-      <c r="J78" s="286"/>
-      <c r="K78" s="286"/>
-      <c r="L78" s="286"/>
-      <c r="M78" s="286"/>
-      <c r="N78" s="287"/>
-      <c r="O78" s="271"/>
-      <c r="P78" s="272"/>
-      <c r="Q78" s="273"/>
-      <c r="R78" s="252"/>
-      <c r="S78" s="252"/>
-      <c r="T78" s="288"/>
-      <c r="U78" s="288"/>
+      <c r="A78" s="180"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="168"/>
+      <c r="O78" s="169"/>
+      <c r="P78" s="170"/>
+      <c r="Q78" s="171"/>
+      <c r="R78" s="163"/>
+      <c r="S78" s="163"/>
+      <c r="T78" s="166"/>
+      <c r="U78" s="166"/>
       <c r="V78" s="164"/>
       <c r="W78" s="164"/>
       <c r="X78" s="164"/>
       <c r="Y78" s="164"/>
-      <c r="Z78" s="257"/>
+      <c r="Z78" s="165"/>
       <c r="AG78" s="123"/>
     </row>
     <row r="79" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="251"/>
-      <c r="B79" s="252"/>
-      <c r="C79" s="252"/>
-      <c r="D79" s="286"/>
-      <c r="E79" s="286"/>
-      <c r="F79" s="286"/>
-      <c r="G79" s="286"/>
-      <c r="H79" s="286"/>
-      <c r="I79" s="286"/>
-      <c r="J79" s="286"/>
-      <c r="K79" s="286"/>
-      <c r="L79" s="286"/>
-      <c r="M79" s="286"/>
-      <c r="N79" s="287"/>
-      <c r="O79" s="271"/>
-      <c r="P79" s="272"/>
-      <c r="Q79" s="273"/>
-      <c r="R79" s="252"/>
-      <c r="S79" s="252"/>
-      <c r="T79" s="288"/>
-      <c r="U79" s="288"/>
+      <c r="A79" s="180"/>
+      <c r="B79" s="163"/>
+      <c r="C79" s="163"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
+      <c r="I79" s="167"/>
+      <c r="J79" s="167"/>
+      <c r="K79" s="167"/>
+      <c r="L79" s="167"/>
+      <c r="M79" s="167"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="169"/>
+      <c r="P79" s="170"/>
+      <c r="Q79" s="171"/>
+      <c r="R79" s="163"/>
+      <c r="S79" s="163"/>
+      <c r="T79" s="166"/>
+      <c r="U79" s="166"/>
       <c r="V79" s="164"/>
       <c r="W79" s="164"/>
       <c r="X79" s="164"/>
       <c r="Y79" s="164"/>
-      <c r="Z79" s="257"/>
+      <c r="Z79" s="165"/>
       <c r="AG79" s="123"/>
     </row>
     <row r="80" spans="1:33" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="296"/>
-      <c r="B80" s="297"/>
-      <c r="C80" s="297"/>
-      <c r="D80" s="297"/>
-      <c r="E80" s="297"/>
-      <c r="F80" s="297"/>
-      <c r="G80" s="297"/>
-      <c r="H80" s="297"/>
-      <c r="I80" s="297"/>
-      <c r="J80" s="297"/>
-      <c r="K80" s="297"/>
-      <c r="L80" s="297"/>
-      <c r="M80" s="297"/>
-      <c r="N80" s="297"/>
-      <c r="O80" s="297"/>
-      <c r="P80" s="297"/>
-      <c r="Q80" s="297"/>
-      <c r="R80" s="297"/>
-      <c r="S80" s="297"/>
-      <c r="T80" s="297"/>
-      <c r="U80" s="297"/>
-      <c r="V80" s="297"/>
-      <c r="W80" s="297"/>
-      <c r="X80" s="297"/>
-      <c r="Y80" s="297"/>
-      <c r="Z80" s="298"/>
+      <c r="A80" s="172"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="173"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="173"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="173"/>
+      <c r="N80" s="173"/>
+      <c r="O80" s="173"/>
+      <c r="P80" s="173"/>
+      <c r="Q80" s="173"/>
+      <c r="R80" s="173"/>
+      <c r="S80" s="173"/>
+      <c r="T80" s="173"/>
+      <c r="U80" s="173"/>
+      <c r="V80" s="173"/>
+      <c r="W80" s="173"/>
+      <c r="X80" s="173"/>
+      <c r="Y80" s="173"/>
+      <c r="Z80" s="174"/>
       <c r="AG80" s="123"/>
     </row>
     <row r="81" spans="1:33" s="4" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6053,32 +6053,32 @@
       <c r="AG83" s="123"/>
     </row>
     <row r="84" spans="1:33" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="218"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="219"/>
-      <c r="K84" s="219"/>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="219"/>
-      <c r="O84" s="219"/>
-      <c r="P84" s="219"/>
-      <c r="Q84" s="219"/>
-      <c r="R84" s="219"/>
-      <c r="S84" s="219"/>
-      <c r="T84" s="219"/>
-      <c r="U84" s="219"/>
-      <c r="V84" s="219"/>
-      <c r="W84" s="219"/>
-      <c r="X84" s="219"/>
-      <c r="Y84" s="219"/>
-      <c r="Z84" s="220"/>
+      <c r="A84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
+      <c r="G84" s="176"/>
+      <c r="H84" s="176"/>
+      <c r="I84" s="176"/>
+      <c r="J84" s="176"/>
+      <c r="K84" s="176"/>
+      <c r="L84" s="176"/>
+      <c r="M84" s="176"/>
+      <c r="N84" s="176"/>
+      <c r="O84" s="176"/>
+      <c r="P84" s="176"/>
+      <c r="Q84" s="176"/>
+      <c r="R84" s="176"/>
+      <c r="S84" s="176"/>
+      <c r="T84" s="176"/>
+      <c r="U84" s="176"/>
+      <c r="V84" s="176"/>
+      <c r="W84" s="176"/>
+      <c r="X84" s="176"/>
+      <c r="Y84" s="176"/>
+      <c r="Z84" s="177"/>
       <c r="AC84" s="90"/>
       <c r="AG84" s="126"/>
     </row>
@@ -6112,58 +6112,58 @@
       <c r="AG85" s="125"/>
     </row>
     <row r="86" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="203"/>
-      <c r="B86" s="204"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="204"/>
-      <c r="E86" s="204"/>
-      <c r="F86" s="204"/>
-      <c r="G86" s="204"/>
-      <c r="H86" s="204"/>
-      <c r="I86" s="204"/>
-      <c r="J86" s="204"/>
-      <c r="K86" s="204"/>
-      <c r="L86" s="204"/>
-      <c r="M86" s="204"/>
-      <c r="N86" s="204"/>
-      <c r="O86" s="204"/>
-      <c r="P86" s="204"/>
-      <c r="Q86" s="204"/>
-      <c r="R86" s="204"/>
-      <c r="S86" s="204"/>
-      <c r="T86" s="204"/>
-      <c r="U86" s="204"/>
-      <c r="V86" s="204"/>
-      <c r="W86" s="204"/>
+      <c r="A86" s="181"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
+      <c r="F86" s="178"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="178"/>
+      <c r="K86" s="178"/>
+      <c r="L86" s="178"/>
+      <c r="M86" s="178"/>
+      <c r="N86" s="178"/>
+      <c r="O86" s="178"/>
+      <c r="P86" s="178"/>
+      <c r="Q86" s="178"/>
+      <c r="R86" s="178"/>
+      <c r="S86" s="178"/>
+      <c r="T86" s="178"/>
+      <c r="U86" s="178"/>
+      <c r="V86" s="178"/>
+      <c r="W86" s="178"/>
       <c r="X86" s="75"/>
-      <c r="Y86" s="204"/>
-      <c r="Z86" s="205"/>
+      <c r="Y86" s="178"/>
+      <c r="Z86" s="179"/>
       <c r="AG86" s="125"/>
     </row>
     <row r="87" spans="1:33" s="90" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="74"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
-      <c r="D87" s="204"/>
-      <c r="E87" s="204"/>
+      <c r="D87" s="178"/>
+      <c r="E87" s="178"/>
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
-      <c r="H87" s="204"/>
-      <c r="I87" s="204"/>
+      <c r="H87" s="178"/>
+      <c r="I87" s="178"/>
       <c r="J87" s="75"/>
       <c r="K87" s="75"/>
       <c r="L87" s="75"/>
-      <c r="M87" s="204"/>
-      <c r="N87" s="204"/>
-      <c r="O87" s="204"/>
-      <c r="P87" s="204"/>
-      <c r="Q87" s="204"/>
-      <c r="R87" s="204"/>
-      <c r="S87" s="204"/>
-      <c r="T87" s="204"/>
-      <c r="U87" s="204"/>
-      <c r="V87" s="204"/>
-      <c r="W87" s="204"/>
+      <c r="M87" s="178"/>
+      <c r="N87" s="178"/>
+      <c r="O87" s="178"/>
+      <c r="P87" s="178"/>
+      <c r="Q87" s="178"/>
+      <c r="R87" s="178"/>
+      <c r="S87" s="178"/>
+      <c r="T87" s="178"/>
+      <c r="U87" s="178"/>
+      <c r="V87" s="178"/>
+      <c r="W87" s="178"/>
       <c r="X87" s="75"/>
       <c r="Y87" s="75"/>
       <c r="Z87" s="78"/>
@@ -6199,32 +6199,32 @@
       <c r="AG88" s="125"/>
     </row>
     <row r="89" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="203"/>
-      <c r="B89" s="204"/>
-      <c r="C89" s="204"/>
-      <c r="D89" s="204"/>
-      <c r="E89" s="204"/>
-      <c r="F89" s="204"/>
-      <c r="G89" s="204"/>
-      <c r="H89" s="204"/>
-      <c r="I89" s="204"/>
+      <c r="A89" s="181"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="178"/>
+      <c r="E89" s="178"/>
+      <c r="F89" s="178"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="178"/>
+      <c r="I89" s="178"/>
       <c r="J89" s="75"/>
-      <c r="K89" s="204"/>
-      <c r="L89" s="204"/>
-      <c r="M89" s="204"/>
-      <c r="N89" s="204"/>
-      <c r="O89" s="204"/>
-      <c r="P89" s="204"/>
-      <c r="Q89" s="204"/>
-      <c r="R89" s="204"/>
-      <c r="S89" s="204"/>
-      <c r="T89" s="204"/>
-      <c r="U89" s="204"/>
-      <c r="V89" s="204"/>
-      <c r="W89" s="204"/>
+      <c r="K89" s="178"/>
+      <c r="L89" s="178"/>
+      <c r="M89" s="178"/>
+      <c r="N89" s="178"/>
+      <c r="O89" s="178"/>
+      <c r="P89" s="178"/>
+      <c r="Q89" s="178"/>
+      <c r="R89" s="178"/>
+      <c r="S89" s="178"/>
+      <c r="T89" s="178"/>
+      <c r="U89" s="178"/>
+      <c r="V89" s="178"/>
+      <c r="W89" s="178"/>
       <c r="X89" s="75"/>
-      <c r="Y89" s="204"/>
-      <c r="Z89" s="205"/>
+      <c r="Y89" s="178"/>
+      <c r="Z89" s="179"/>
       <c r="AG89" s="125"/>
     </row>
     <row r="90" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6235,20 +6235,20 @@
       <c r="E90" s="75"/>
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
-      <c r="H90" s="213"/>
-      <c r="I90" s="213"/>
-      <c r="J90" s="213"/>
+      <c r="H90" s="262"/>
+      <c r="I90" s="262"/>
+      <c r="J90" s="262"/>
       <c r="K90" s="75"/>
-      <c r="L90" s="214"/>
-      <c r="M90" s="214"/>
+      <c r="L90" s="190"/>
+      <c r="M90" s="190"/>
       <c r="N90" s="75"/>
       <c r="O90" s="75"/>
       <c r="P90" s="75"/>
       <c r="Q90" s="75"/>
       <c r="R90" s="75"/>
       <c r="S90" s="75"/>
-      <c r="T90" s="214"/>
-      <c r="U90" s="214"/>
+      <c r="T90" s="190"/>
+      <c r="U90" s="190"/>
       <c r="V90" s="75"/>
       <c r="W90" s="75"/>
       <c r="X90" s="75"/>
@@ -6257,32 +6257,32 @@
       <c r="AG90" s="125"/>
     </row>
     <row r="91" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="203"/>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
+      <c r="A91" s="181"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="178"/>
       <c r="E91" s="80"/>
-      <c r="F91" s="204"/>
-      <c r="G91" s="204"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="178"/>
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
       <c r="J91" s="75"/>
       <c r="K91" s="75"/>
-      <c r="L91" s="217"/>
-      <c r="M91" s="217"/>
-      <c r="N91" s="204"/>
-      <c r="O91" s="204"/>
-      <c r="P91" s="204"/>
-      <c r="Q91" s="204"/>
-      <c r="R91" s="204"/>
+      <c r="L91" s="261"/>
+      <c r="M91" s="261"/>
+      <c r="N91" s="178"/>
+      <c r="O91" s="178"/>
+      <c r="P91" s="178"/>
+      <c r="Q91" s="178"/>
+      <c r="R91" s="178"/>
       <c r="S91" s="75"/>
-      <c r="T91" s="217"/>
-      <c r="U91" s="217"/>
-      <c r="V91" s="204"/>
-      <c r="W91" s="204"/>
-      <c r="X91" s="204"/>
-      <c r="Y91" s="204"/>
-      <c r="Z91" s="205"/>
+      <c r="T91" s="261"/>
+      <c r="U91" s="261"/>
+      <c r="V91" s="178"/>
+      <c r="W91" s="178"/>
+      <c r="X91" s="178"/>
+      <c r="Y91" s="178"/>
+      <c r="Z91" s="179"/>
       <c r="AG91" s="125"/>
     </row>
     <row r="92" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6315,32 +6315,32 @@
       <c r="AG92" s="125"/>
     </row>
     <row r="93" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="203"/>
-      <c r="B93" s="204"/>
-      <c r="C93" s="204"/>
-      <c r="D93" s="204"/>
-      <c r="E93" s="204"/>
-      <c r="F93" s="204"/>
-      <c r="G93" s="204"/>
-      <c r="H93" s="204"/>
-      <c r="I93" s="204"/>
-      <c r="J93" s="204"/>
-      <c r="K93" s="204"/>
-      <c r="L93" s="204"/>
-      <c r="M93" s="204"/>
-      <c r="N93" s="204"/>
-      <c r="O93" s="204"/>
-      <c r="P93" s="204"/>
-      <c r="Q93" s="204"/>
-      <c r="R93" s="204"/>
-      <c r="S93" s="204"/>
-      <c r="T93" s="204"/>
-      <c r="U93" s="204"/>
-      <c r="V93" s="204"/>
-      <c r="W93" s="204"/>
-      <c r="X93" s="204"/>
-      <c r="Y93" s="204"/>
-      <c r="Z93" s="205"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="178"/>
+      <c r="C93" s="178"/>
+      <c r="D93" s="178"/>
+      <c r="E93" s="178"/>
+      <c r="F93" s="178"/>
+      <c r="G93" s="178"/>
+      <c r="H93" s="178"/>
+      <c r="I93" s="178"/>
+      <c r="J93" s="178"/>
+      <c r="K93" s="178"/>
+      <c r="L93" s="178"/>
+      <c r="M93" s="178"/>
+      <c r="N93" s="178"/>
+      <c r="O93" s="178"/>
+      <c r="P93" s="178"/>
+      <c r="Q93" s="178"/>
+      <c r="R93" s="178"/>
+      <c r="S93" s="178"/>
+      <c r="T93" s="178"/>
+      <c r="U93" s="178"/>
+      <c r="V93" s="178"/>
+      <c r="W93" s="178"/>
+      <c r="X93" s="178"/>
+      <c r="Y93" s="178"/>
+      <c r="Z93" s="179"/>
       <c r="AC93" s="75"/>
       <c r="AG93" s="125"/>
     </row>
@@ -6398,32 +6398,32 @@
       <c r="AG95" s="80"/>
     </row>
     <row r="96" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="218"/>
-      <c r="B96" s="219"/>
-      <c r="C96" s="219"/>
-      <c r="D96" s="219"/>
-      <c r="E96" s="219"/>
-      <c r="F96" s="219"/>
-      <c r="G96" s="219"/>
-      <c r="H96" s="219"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="219"/>
-      <c r="K96" s="219"/>
-      <c r="L96" s="219"/>
-      <c r="M96" s="219"/>
-      <c r="N96" s="219"/>
-      <c r="O96" s="219"/>
-      <c r="P96" s="219"/>
-      <c r="Q96" s="219"/>
-      <c r="R96" s="219"/>
-      <c r="S96" s="219"/>
-      <c r="T96" s="219"/>
-      <c r="U96" s="219"/>
-      <c r="V96" s="219"/>
-      <c r="W96" s="219"/>
-      <c r="X96" s="219"/>
-      <c r="Y96" s="219"/>
-      <c r="Z96" s="220"/>
+      <c r="A96" s="175"/>
+      <c r="B96" s="176"/>
+      <c r="C96" s="176"/>
+      <c r="D96" s="176"/>
+      <c r="E96" s="176"/>
+      <c r="F96" s="176"/>
+      <c r="G96" s="176"/>
+      <c r="H96" s="176"/>
+      <c r="I96" s="176"/>
+      <c r="J96" s="176"/>
+      <c r="K96" s="176"/>
+      <c r="L96" s="176"/>
+      <c r="M96" s="176"/>
+      <c r="N96" s="176"/>
+      <c r="O96" s="176"/>
+      <c r="P96" s="176"/>
+      <c r="Q96" s="176"/>
+      <c r="R96" s="176"/>
+      <c r="S96" s="176"/>
+      <c r="T96" s="176"/>
+      <c r="U96" s="176"/>
+      <c r="V96" s="176"/>
+      <c r="W96" s="176"/>
+      <c r="X96" s="176"/>
+      <c r="Y96" s="176"/>
+      <c r="Z96" s="177"/>
       <c r="AG96" s="125"/>
     </row>
     <row r="97" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6456,58 +6456,58 @@
       <c r="AG97" s="125"/>
     </row>
     <row r="98" spans="1:33" s="90" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="203"/>
-      <c r="B98" s="204"/>
-      <c r="C98" s="204"/>
-      <c r="D98" s="204"/>
-      <c r="E98" s="204"/>
-      <c r="F98" s="204"/>
-      <c r="G98" s="204"/>
-      <c r="H98" s="204"/>
-      <c r="I98" s="204"/>
-      <c r="J98" s="204"/>
-      <c r="K98" s="204"/>
-      <c r="L98" s="204"/>
-      <c r="M98" s="204"/>
-      <c r="N98" s="204"/>
-      <c r="O98" s="204"/>
-      <c r="P98" s="204"/>
-      <c r="Q98" s="204"/>
-      <c r="R98" s="204"/>
-      <c r="S98" s="204"/>
-      <c r="T98" s="204"/>
-      <c r="U98" s="204"/>
-      <c r="V98" s="204"/>
-      <c r="W98" s="204"/>
+      <c r="A98" s="181"/>
+      <c r="B98" s="178"/>
+      <c r="C98" s="178"/>
+      <c r="D98" s="178"/>
+      <c r="E98" s="178"/>
+      <c r="F98" s="178"/>
+      <c r="G98" s="178"/>
+      <c r="H98" s="178"/>
+      <c r="I98" s="178"/>
+      <c r="J98" s="178"/>
+      <c r="K98" s="178"/>
+      <c r="L98" s="178"/>
+      <c r="M98" s="178"/>
+      <c r="N98" s="178"/>
+      <c r="O98" s="178"/>
+      <c r="P98" s="178"/>
+      <c r="Q98" s="178"/>
+      <c r="R98" s="178"/>
+      <c r="S98" s="178"/>
+      <c r="T98" s="178"/>
+      <c r="U98" s="178"/>
+      <c r="V98" s="178"/>
+      <c r="W98" s="178"/>
       <c r="X98" s="75"/>
-      <c r="Y98" s="204"/>
-      <c r="Z98" s="205"/>
+      <c r="Y98" s="178"/>
+      <c r="Z98" s="179"/>
       <c r="AG98" s="125"/>
     </row>
     <row r="99" spans="1:33" s="90" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
-      <c r="D99" s="204"/>
-      <c r="E99" s="204"/>
+      <c r="D99" s="178"/>
+      <c r="E99" s="178"/>
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
-      <c r="H99" s="204"/>
-      <c r="I99" s="204"/>
+      <c r="H99" s="178"/>
+      <c r="I99" s="178"/>
       <c r="J99" s="75"/>
       <c r="K99" s="75"/>
       <c r="L99" s="75"/>
-      <c r="M99" s="204"/>
-      <c r="N99" s="204"/>
-      <c r="O99" s="204"/>
-      <c r="P99" s="204"/>
-      <c r="Q99" s="204"/>
-      <c r="R99" s="204"/>
-      <c r="S99" s="204"/>
-      <c r="T99" s="204"/>
-      <c r="U99" s="204"/>
-      <c r="V99" s="204"/>
-      <c r="W99" s="204"/>
+      <c r="M99" s="178"/>
+      <c r="N99" s="178"/>
+      <c r="O99" s="178"/>
+      <c r="P99" s="178"/>
+      <c r="Q99" s="178"/>
+      <c r="R99" s="178"/>
+      <c r="S99" s="178"/>
+      <c r="T99" s="178"/>
+      <c r="U99" s="178"/>
+      <c r="V99" s="178"/>
+      <c r="W99" s="178"/>
       <c r="X99" s="75"/>
       <c r="Y99" s="75"/>
       <c r="Z99" s="78"/>
@@ -6543,32 +6543,32 @@
       <c r="AG100" s="125"/>
     </row>
     <row r="101" spans="1:33" s="90" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="203"/>
-      <c r="B101" s="204"/>
-      <c r="C101" s="204"/>
-      <c r="D101" s="204"/>
-      <c r="E101" s="204"/>
-      <c r="F101" s="204"/>
-      <c r="G101" s="204"/>
-      <c r="H101" s="204"/>
-      <c r="I101" s="204"/>
+      <c r="A101" s="181"/>
+      <c r="B101" s="178"/>
+      <c r="C101" s="178"/>
+      <c r="D101" s="178"/>
+      <c r="E101" s="178"/>
+      <c r="F101" s="178"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="178"/>
+      <c r="I101" s="178"/>
       <c r="J101" s="75"/>
-      <c r="K101" s="204"/>
-      <c r="L101" s="204"/>
-      <c r="M101" s="204"/>
-      <c r="N101" s="204"/>
-      <c r="O101" s="204"/>
-      <c r="P101" s="204"/>
-      <c r="Q101" s="204"/>
-      <c r="R101" s="204"/>
-      <c r="S101" s="204"/>
-      <c r="T101" s="204"/>
-      <c r="U101" s="204"/>
-      <c r="V101" s="204"/>
-      <c r="W101" s="204"/>
+      <c r="K101" s="178"/>
+      <c r="L101" s="178"/>
+      <c r="M101" s="178"/>
+      <c r="N101" s="178"/>
+      <c r="O101" s="178"/>
+      <c r="P101" s="178"/>
+      <c r="Q101" s="178"/>
+      <c r="R101" s="178"/>
+      <c r="S101" s="178"/>
+      <c r="T101" s="178"/>
+      <c r="U101" s="178"/>
+      <c r="V101" s="178"/>
+      <c r="W101" s="178"/>
       <c r="X101" s="75"/>
-      <c r="Y101" s="204"/>
-      <c r="Z101" s="205"/>
+      <c r="Y101" s="178"/>
+      <c r="Z101" s="179"/>
       <c r="AG101" s="125"/>
     </row>
     <row r="102" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6579,20 +6579,20 @@
       <c r="E102" s="75"/>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
-      <c r="H102" s="213"/>
-      <c r="I102" s="213"/>
-      <c r="J102" s="213"/>
+      <c r="H102" s="262"/>
+      <c r="I102" s="262"/>
+      <c r="J102" s="262"/>
       <c r="K102" s="75"/>
-      <c r="L102" s="214"/>
-      <c r="M102" s="214"/>
+      <c r="L102" s="190"/>
+      <c r="M102" s="190"/>
       <c r="N102" s="75"/>
       <c r="O102" s="75"/>
       <c r="P102" s="75"/>
       <c r="Q102" s="75"/>
       <c r="R102" s="75"/>
       <c r="S102" s="75"/>
-      <c r="T102" s="214"/>
-      <c r="U102" s="214"/>
+      <c r="T102" s="190"/>
+      <c r="U102" s="190"/>
       <c r="V102" s="75"/>
       <c r="W102" s="75"/>
       <c r="X102" s="75"/>
@@ -6601,32 +6601,32 @@
       <c r="AG102" s="125"/>
     </row>
     <row r="103" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="203"/>
-      <c r="B103" s="204"/>
-      <c r="C103" s="204"/>
-      <c r="D103" s="204"/>
+      <c r="A103" s="181"/>
+      <c r="B103" s="178"/>
+      <c r="C103" s="178"/>
+      <c r="D103" s="178"/>
       <c r="E103" s="80"/>
-      <c r="F103" s="204"/>
-      <c r="G103" s="204"/>
+      <c r="F103" s="178"/>
+      <c r="G103" s="178"/>
       <c r="H103" s="75"/>
       <c r="I103" s="75"/>
       <c r="J103" s="75"/>
       <c r="K103" s="75"/>
-      <c r="L103" s="217"/>
-      <c r="M103" s="217"/>
-      <c r="N103" s="204"/>
-      <c r="O103" s="204"/>
-      <c r="P103" s="204"/>
-      <c r="Q103" s="204"/>
-      <c r="R103" s="204"/>
+      <c r="L103" s="261"/>
+      <c r="M103" s="261"/>
+      <c r="N103" s="178"/>
+      <c r="O103" s="178"/>
+      <c r="P103" s="178"/>
+      <c r="Q103" s="178"/>
+      <c r="R103" s="178"/>
       <c r="S103" s="75"/>
-      <c r="T103" s="217"/>
-      <c r="U103" s="217"/>
-      <c r="V103" s="204"/>
-      <c r="W103" s="204"/>
-      <c r="X103" s="204"/>
-      <c r="Y103" s="204"/>
-      <c r="Z103" s="205"/>
+      <c r="T103" s="261"/>
+      <c r="U103" s="261"/>
+      <c r="V103" s="178"/>
+      <c r="W103" s="178"/>
+      <c r="X103" s="178"/>
+      <c r="Y103" s="178"/>
+      <c r="Z103" s="179"/>
       <c r="AG103" s="125"/>
     </row>
     <row r="104" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6659,32 +6659,32 @@
       <c r="AG104" s="125"/>
     </row>
     <row r="105" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="203"/>
-      <c r="B105" s="204"/>
-      <c r="C105" s="204"/>
-      <c r="D105" s="204"/>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
-      <c r="I105" s="204"/>
-      <c r="J105" s="204"/>
-      <c r="K105" s="204"/>
-      <c r="L105" s="204"/>
-      <c r="M105" s="204"/>
-      <c r="N105" s="204"/>
-      <c r="O105" s="204"/>
-      <c r="P105" s="204"/>
-      <c r="Q105" s="204"/>
-      <c r="R105" s="204"/>
-      <c r="S105" s="204"/>
-      <c r="T105" s="204"/>
-      <c r="U105" s="204"/>
-      <c r="V105" s="204"/>
-      <c r="W105" s="204"/>
-      <c r="X105" s="204"/>
-      <c r="Y105" s="204"/>
-      <c r="Z105" s="205"/>
+      <c r="A105" s="181"/>
+      <c r="B105" s="178"/>
+      <c r="C105" s="178"/>
+      <c r="D105" s="178"/>
+      <c r="E105" s="178"/>
+      <c r="F105" s="178"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="178"/>
+      <c r="I105" s="178"/>
+      <c r="J105" s="178"/>
+      <c r="K105" s="178"/>
+      <c r="L105" s="178"/>
+      <c r="M105" s="178"/>
+      <c r="N105" s="178"/>
+      <c r="O105" s="178"/>
+      <c r="P105" s="178"/>
+      <c r="Q105" s="178"/>
+      <c r="R105" s="178"/>
+      <c r="S105" s="178"/>
+      <c r="T105" s="178"/>
+      <c r="U105" s="178"/>
+      <c r="V105" s="178"/>
+      <c r="W105" s="178"/>
+      <c r="X105" s="178"/>
+      <c r="Y105" s="178"/>
+      <c r="Z105" s="179"/>
       <c r="AC105" s="69"/>
       <c r="AG105" s="125"/>
     </row>
@@ -6719,63 +6719,210 @@
       <c r="AG106" s="125"/>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A108" s="206"/>
-      <c r="B108" s="206"/>
-      <c r="C108" s="206"/>
-      <c r="D108" s="206"/>
-      <c r="E108" s="206"/>
-      <c r="F108" s="206"/>
-      <c r="G108" s="206"/>
-      <c r="H108" s="206"/>
-      <c r="I108" s="206"/>
-      <c r="J108" s="206"/>
-      <c r="K108" s="206"/>
-      <c r="L108" s="206"/>
-      <c r="M108" s="206"/>
-      <c r="N108" s="206"/>
-      <c r="O108" s="206"/>
-      <c r="P108" s="206"/>
-      <c r="Q108" s="206"/>
-      <c r="R108" s="206"/>
-      <c r="S108" s="206"/>
-      <c r="T108" s="206"/>
-      <c r="U108" s="206"/>
-      <c r="V108" s="206"/>
-      <c r="W108" s="206"/>
-      <c r="X108" s="206"/>
-      <c r="Y108" s="206"/>
-      <c r="Z108" s="206"/>
+      <c r="A108" s="263"/>
+      <c r="B108" s="263"/>
+      <c r="C108" s="263"/>
+      <c r="D108" s="263"/>
+      <c r="E108" s="263"/>
+      <c r="F108" s="263"/>
+      <c r="G108" s="263"/>
+      <c r="H108" s="263"/>
+      <c r="I108" s="263"/>
+      <c r="J108" s="263"/>
+      <c r="K108" s="263"/>
+      <c r="L108" s="263"/>
+      <c r="M108" s="263"/>
+      <c r="N108" s="263"/>
+      <c r="O108" s="263"/>
+      <c r="P108" s="263"/>
+      <c r="Q108" s="263"/>
+      <c r="R108" s="263"/>
+      <c r="S108" s="263"/>
+      <c r="T108" s="263"/>
+      <c r="U108" s="263"/>
+      <c r="V108" s="263"/>
+      <c r="W108" s="263"/>
+      <c r="X108" s="263"/>
+      <c r="Y108" s="263"/>
+      <c r="Z108" s="263"/>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A109" s="206"/>
-      <c r="B109" s="206"/>
-      <c r="C109" s="206"/>
-      <c r="D109" s="206"/>
-      <c r="E109" s="206"/>
-      <c r="F109" s="206"/>
-      <c r="G109" s="206"/>
-      <c r="H109" s="206"/>
-      <c r="I109" s="206"/>
-      <c r="J109" s="206"/>
-      <c r="K109" s="206"/>
-      <c r="L109" s="206"/>
-      <c r="M109" s="206"/>
-      <c r="N109" s="206"/>
-      <c r="O109" s="206"/>
-      <c r="P109" s="206"/>
-      <c r="Q109" s="206"/>
-      <c r="R109" s="206"/>
-      <c r="S109" s="206"/>
-      <c r="T109" s="206"/>
-      <c r="U109" s="206"/>
-      <c r="V109" s="206"/>
-      <c r="W109" s="206"/>
-      <c r="X109" s="206"/>
-      <c r="Y109" s="206"/>
-      <c r="Z109" s="206"/>
+      <c r="A109" s="263"/>
+      <c r="B109" s="263"/>
+      <c r="C109" s="263"/>
+      <c r="D109" s="263"/>
+      <c r="E109" s="263"/>
+      <c r="F109" s="263"/>
+      <c r="G109" s="263"/>
+      <c r="H109" s="263"/>
+      <c r="I109" s="263"/>
+      <c r="J109" s="263"/>
+      <c r="K109" s="263"/>
+      <c r="L109" s="263"/>
+      <c r="M109" s="263"/>
+      <c r="N109" s="263"/>
+      <c r="O109" s="263"/>
+      <c r="P109" s="263"/>
+      <c r="Q109" s="263"/>
+      <c r="R109" s="263"/>
+      <c r="S109" s="263"/>
+      <c r="T109" s="263"/>
+      <c r="U109" s="263"/>
+      <c r="V109" s="263"/>
+      <c r="W109" s="263"/>
+      <c r="X109" s="263"/>
+      <c r="Y109" s="263"/>
+      <c r="Z109" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="E60:Z60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="N61:S61"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="N29:Z29"/>
+    <mergeCell ref="A30:Z30"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="A50:W50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E15:T15"/>
+    <mergeCell ref="E16:R16"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="U20:Z20"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="A105:Z105"/>
+    <mergeCell ref="A108:Z109"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="P51:Z51"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N103:R103"/>
+    <mergeCell ref="A98:W98"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="M99:W99"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="V103:Z103"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="V91:Z91"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="A96:Z96"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="M87:W87"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="K89:W89"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="K101:W101"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="A64:H66"/>
+    <mergeCell ref="I64:Z66"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A67:Z67"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="O70:Z70"/>
+    <mergeCell ref="A68:Z68"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="A69:Z69"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="P10:Z10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A59:Z59"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A2:D11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="V77:Z77"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="L62:S62"/>
+    <mergeCell ref="T62:Z62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="K53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="K55:Z55"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="A58:Z58"/>
+    <mergeCell ref="A57:Z57"/>
+    <mergeCell ref="R35:Z35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="V78:Z78"/>
+    <mergeCell ref="V79:Z79"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V75:Z75"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:N71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:Z71"/>
+    <mergeCell ref="A80:Z80"/>
+    <mergeCell ref="A84:Z84"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="V76:Z76"/>
+    <mergeCell ref="O77:Q77"/>
     <mergeCell ref="R79:S79"/>
     <mergeCell ref="R78:S78"/>
     <mergeCell ref="V72:Z72"/>
@@ -6800,153 +6947,6 @@
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="G76:N76"/>
-    <mergeCell ref="A80:Z80"/>
-    <mergeCell ref="A84:Z84"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="G79:N79"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="V76:Z76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="A58:Z58"/>
-    <mergeCell ref="A57:Z57"/>
-    <mergeCell ref="R35:Z35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="V78:Z78"/>
-    <mergeCell ref="V79:Z79"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V75:Z75"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:N71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:Z71"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="P10:Z10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A59:Z59"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A2:D11"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="V77:Z77"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="L62:S62"/>
-    <mergeCell ref="T62:Z62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="K53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="K55:Z55"/>
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A64:H66"/>
-    <mergeCell ref="I64:Z66"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A67:Z67"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="O70:Z70"/>
-    <mergeCell ref="A68:Z68"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="A69:Z69"/>
-    <mergeCell ref="A93:Z93"/>
-    <mergeCell ref="A96:Z96"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="M87:W87"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="K89:W89"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="K101:W101"/>
-    <mergeCell ref="Y101:Z101"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="A105:Z105"/>
-    <mergeCell ref="A108:Z109"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="P51:Z51"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N103:R103"/>
-    <mergeCell ref="A98:W98"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="M99:W99"/>
-    <mergeCell ref="A101:I101"/>
-    <mergeCell ref="V103:Z103"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="V91:Z91"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="E60:Z60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="N61:S61"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="N29:Z29"/>
-    <mergeCell ref="A30:Z30"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="A50:W50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E15:T15"/>
-    <mergeCell ref="E16:R16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="U20:Z20"/>
-    <mergeCell ref="V11:Z11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E16:R16">
@@ -7398,7 +7398,7 @@
       <c r="A3" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="299">
+      <c r="B3" s="162">
         <v>123</v>
       </c>
       <c r="C3" t="s">
